--- a/data_processed/20250711/BTCUSDQMOMENT_20250711.xlsx
+++ b/data_processed/20250711/BTCUSDQMOMENT_20250711.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>20.50998952911186</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.233845357542316</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2077763376300053</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.7620896314017754</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.199112066646072</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250711/BTCUSDQMOMENT_20250711.xlsx
+++ b/data_processed/20250711/BTCUSDQMOMENT_20250711.xlsx
@@ -552,19 +552,19 @@
         <v>0.1342465753424658</v>
       </c>
       <c r="D3" t="n">
-        <v>119397.7126220648</v>
+        <v>119391.2226527308</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0004801271660446721</v>
+        <v>-0.000195981089771478</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1933413039272859</v>
+        <v>0.2005776351199539</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.737408184786753</v>
+        <v>-2.413356533739569</v>
       </c>
       <c r="H3" t="n">
-        <v>20.50998952911186</v>
+        <v>34.72329819336328</v>
       </c>
       <c r="I3" t="n">
         <v>-0.233845357542316</v>
@@ -594,19 +594,19 @@
         <v>0.210958904109589</v>
       </c>
       <c r="D4" t="n">
-        <v>120153.3094183963</v>
+        <v>120045.5986622373</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.002031334949330848</v>
+        <v>-0.007101267187287857</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1896054850556461</v>
+        <v>0.2155862234957542</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5507362446575608</v>
+        <v>-1.808078611900467</v>
       </c>
       <c r="H4" t="n">
-        <v>8.646161361014491</v>
+        <v>22.88182822685657</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -696,19 +696,19 @@
         <v>0.4602739726027397</v>
       </c>
       <c r="D7" t="n">
-        <v>122020.9658108189</v>
+        <v>122018.8542181565</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02877711427741396</v>
+        <v>-0.029298854387986</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2542435703998498</v>
+        <v>0.2588526672295926</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.341229220848505</v>
+        <v>-1.537140499314168</v>
       </c>
       <c r="H7" t="n">
-        <v>12.65224411759603</v>
+        <v>14.98532129978339</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -730,19 +730,19 @@
         <v>0.8821917808219178</v>
       </c>
       <c r="D8" t="n">
-        <v>123621.2672404199</v>
+        <v>123618.9583541257</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.04422842986106801</v>
+        <v>-0.04432804178162208</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2147513213178777</v>
+        <v>0.2151841594485501</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.8549069137124867</v>
+        <v>-0.8686754940696204</v>
       </c>
       <c r="H8" t="n">
-        <v>6.918690138393885</v>
+        <v>7.023883093029358</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -764,19 +764,19 @@
         <v>0.958904109589041</v>
       </c>
       <c r="D9" t="n">
-        <v>125514.3004794602</v>
+        <v>125554.3193767574</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.08879947985640987</v>
+        <v>-0.08324576679777931</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3694703885214727</v>
+        <v>0.3338917264019692</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.739794564347092</v>
+        <v>-1.107842795327797</v>
       </c>
       <c r="H9" t="n">
-        <v>13.01895580966095</v>
+        <v>8.13447413961164</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -798,19 +798,19 @@
         <v>1.208219178082192</v>
       </c>
       <c r="D10" t="n">
-        <v>126844.6116644866</v>
+        <v>126840.5479974588</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1241374546010331</v>
+        <v>-0.1255479478825695</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4439851427018012</v>
+        <v>0.4538497225950301</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.599330642408895</v>
+        <v>-1.71457320976112</v>
       </c>
       <c r="H10" t="n">
-        <v>8.135579254767315</v>
+        <v>9.030449326029748</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -832,19 +832,19 @@
         <v>1.454794520547945</v>
       </c>
       <c r="D11" t="n">
-        <v>130171.8757909761</v>
+        <v>129177.22578654</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1141197365082242</v>
+        <v>-0.1365025630979463</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3880717797751506</v>
+        <v>0.4495110466168772</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.142942550988949</v>
+        <v>-1.450462125962815</v>
       </c>
       <c r="H11" t="n">
-        <v>5.968815637129165</v>
+        <v>7.134146175914214</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -950,19 +950,19 @@
         <v>0.01095890410958904</v>
       </c>
       <c r="D14" t="n">
-        <v>118495.2059850469</v>
+        <v>118494.7723093694</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03826329933375465</v>
+        <v>0.03822422267702869</v>
       </c>
       <c r="F14" t="n">
-        <v>0.128558031167318</v>
+        <v>0.1286383840365845</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4057275914174533</v>
+        <v>-0.4088091507890652</v>
       </c>
       <c r="H14" t="n">
-        <v>5.490561625252939</v>
+        <v>5.505831396975475</v>
       </c>
       <c r="I14" t="n">
         <v>0.1354203604347923</v>
@@ -992,19 +992,19 @@
         <v>0.0136986301369863</v>
       </c>
       <c r="D15" t="n">
-        <v>118527.5891933633</v>
+        <v>118552.6968025638</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03451571691894966</v>
+        <v>0.03664781610329994</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1378045338268964</v>
+        <v>0.1318328622173739</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3396126511194216</v>
+        <v>-0.01977467477668066</v>
       </c>
       <c r="H15" t="n">
-        <v>7.684271557060344</v>
+        <v>5.571520090677694</v>
       </c>
       <c r="I15" t="n">
         <v>0.1305712977691828</v>
@@ -1076,19 +1076,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D17" t="n">
-        <v>118465.538621651</v>
+        <v>118454.0302185932</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02255503628809024</v>
+        <v>0.02253468810491821</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1379301928538162</v>
+        <v>0.130238150300085</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5580822857759459</v>
+        <v>-0.4386338304790469</v>
       </c>
       <c r="H17" t="n">
-        <v>9.567871839832202</v>
+        <v>4.694400845141799</v>
       </c>
       <c r="I17" t="n">
         <v>0.117265648837594</v>
@@ -1160,19 +1160,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D19" t="n">
-        <v>119385.149620733</v>
+        <v>119418.1356032531</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02109229188109724</v>
+        <v>0.02264927163941857</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1628988266742246</v>
+        <v>0.157834041615163</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3553950114451859</v>
+        <v>-0.1618463356375253</v>
       </c>
       <c r="H19" t="n">
-        <v>5.386733677723616</v>
+        <v>4.310937060828445</v>
       </c>
       <c r="I19" t="n">
         <v>-0.107489276587726</v>

--- a/data_processed/20250711/BTCUSDQMOMENT_20250711.xlsx
+++ b/data_processed/20250711/BTCUSDQMOMENT_20250711.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>22.88182822685657</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.4480918941592057</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.281622951475094</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.3813478193465918</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.340562436104241</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/data_processed/20250711/BTCUSDQMOMENT_20250711.xlsx
+++ b/data_processed/20250711/BTCUSDQMOMENT_20250711.xlsx
@@ -650,10 +650,18 @@
       <c r="H5" t="n">
         <v>10.502493632555</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>-0.516135260677097</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4525158602337503</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01543451336434984</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.435815503854494</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
